--- a/_Out/NFDataCfg/Excel_Ini/Talent.xlsx
+++ b/_Out/NFDataCfg/Excel_Ini/Talent.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cherish\Desktop\git\nf\develop\_Out\Server\NFDataCfg\Excel_Ini\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Desktop\NoahGameFrame\_Out\NFDataCfg\Excel_Ini\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27520" windowHeight="17540"/>
+    <workbookView xWindow="0" yWindow="458" windowWidth="27518" windowHeight="17543"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
   <si>
     <t>Id</t>
   </si>
@@ -55,24 +55,12 @@
     <t>Icon</t>
   </si>
   <si>
-    <t>Atlas</t>
-  </si>
-  <si>
-    <t>UpLevel</t>
-  </si>
-  <si>
-    <t>AfterUpID</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
-    <t>int</t>
-  </si>
-  <si>
     <t>Public</t>
   </si>
   <si>
@@ -101,12 +89,6 @@
   </si>
   <si>
     <t>图集</t>
-  </si>
-  <si>
-    <t>升级需要的等级</t>
-  </si>
-  <si>
-    <t>升级后的新技能ID</t>
   </si>
   <si>
     <t>TALENT1</t>
@@ -183,13 +165,19 @@
   <si>
     <t>Upload</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpriteFile</t>
+  </si>
+  <si>
+    <t>NextID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -369,7 +357,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -734,21 +722,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="20.81640625" customWidth="1"/>
+    <col min="1" max="1" width="20.796875" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="8" max="8" width="26.1796875" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="16.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="27">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -765,149 +754,131 @@
         <v>4</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1">
+      <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="C2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="2" customFormat="1">
+      <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="B3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="2" customFormat="1">
+      <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="2" customFormat="1">
+      <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="8" t="s">
+      <c r="B5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="2" customFormat="1">
+      <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="B6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="3" customFormat="1">
+      <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="B7" s="3" t="b">
         <v>0</v>
       </c>
@@ -926,13 +897,10 @@
       <c r="G7" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="H7" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:7" s="3" customFormat="1">
       <c r="A8" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B8" s="3" t="b">
         <v>0</v>
@@ -952,143 +920,135 @@
       <c r="G8" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="H8" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="27">
       <c r="A9" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="C10" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="B11" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="C11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
         <v>23</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C12" t="s">
         <v>25</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
         <v>26</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" t="s">
         <v>27</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C13" t="s">
         <v>28</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
         <v>29</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B14" t="s">
         <v>30</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C14" t="s">
         <v>31</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
         <v>32</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B15" t="s">
         <v>33</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C15" t="s">
         <v>34</v>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
         <v>35</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B16" t="s">
         <v>36</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C16" t="s">
         <v>37</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
         <v>38</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B17" t="s">
         <v>39</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C17" t="s">
         <v>40</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" t="s">
-        <v>43</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" t="s">
-        <v>46</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1098,7 +1058,7 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A8"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:H8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:G8">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/_Out/NFDataCfg/Excel_Ini/Talent.xlsx
+++ b/_Out/NFDataCfg/Excel_Ini/Talent.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
   <si>
     <t>Id</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>NextID</t>
+  </si>
+  <si>
+    <t>Force</t>
   </si>
 </sst>
 </file>
@@ -722,11 +725,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -900,71 +903,80 @@
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1">
       <c r="A8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="3" customFormat="1">
+      <c r="A9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="27">
-      <c r="A9" s="9" t="s">
+      <c r="B9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1" ht="27">
+      <c r="A10" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="10"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
+      <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -972,13 +984,13 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -986,13 +998,13 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1000,13 +1012,13 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1014,13 +1026,13 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1028,13 +1040,13 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1042,23 +1054,37 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
         <v>38</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>39</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>40</v>
       </c>
-      <c r="G17">
+      <c r="G18">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A8"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:G8">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A9"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:G9">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
